--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\githubfolder\rungame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538557B7-756E-4A83-8486-39B034295944}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601D41E-FFD8-4668-8809-EB62BB62F63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>1 プレイヤーの挙動</t>
     <rPh sb="8" eb="10">
@@ -44,20 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1_2　小ジャンプ　</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1_3　大ジャンプ　</t>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1_4　二段ジャンプ　</t>
     <rPh sb="4" eb="6">
       <t>ニダン</t>
@@ -325,6 +311,13 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_2　カメラの追従　</t>
+    <rPh sb="8" eb="10">
+      <t>ツイジュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -393,15 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -428,109 +412,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -678,6 +640,30 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -686,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,13 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -723,72 +703,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -806,58 +795,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1220,16 +1163,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D0A6A-90D3-4312-AAEB-989A3380115E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.59765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
@@ -1254,338 +1197,339 @@
     </row>
     <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="17">
-        <f>SUM(D7:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15">
+        <f>AVERAGE(D7:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="25">
+      <c r="G6" s="6"/>
+      <c r="H6" s="21">
         <v>45057</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="25">
+      <c r="G7" s="6"/>
+      <c r="H7" s="21">
         <v>45058</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22"/>
+      <c r="B8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="25">
+      <c r="G8" s="6"/>
+      <c r="H8" s="21">
         <v>45063</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="21">
+        <v>45064</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="25">
-        <v>45064</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="21">
+        <v>45065</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="25">
-        <v>45065</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="21">
+        <v>45070</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="21">
+        <v>45071</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="21">
+        <v>45072</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="25">
-        <v>45070</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="13" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="21">
+        <v>45077</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="25">
-        <v>45071</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="25">
-        <v>45072</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="25">
-        <v>45077</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="3"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="26">
+      <c r="H15" s="22">
         <v>45078</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>34</v>
+      <c r="I15" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22"/>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>45079</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22"/>
+      <c r="B17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="16">
+        <f>AVERAGE(D18:D19)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="3"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="26">
+      <c r="H17" s="22">
         <v>45084</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22"/>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="3"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>45085</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>35</v>
+      <c r="I18" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="22"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>45086</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="16">
+        <f>AVERAGE(D21:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="3"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="40">
+      <c r="H20" s="23">
         <v>45091</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="18">
-        <f>SUM(D22:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="22"/>
+      <c r="B21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22"/>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="3"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1593,14 +1537,15 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="22"/>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="16">
+        <f>AVERAGE(D24:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="3"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1608,14 +1553,14 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22"/>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1623,52 +1568,46 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22"/>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="22"/>
+    <row r="26" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="3"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1678,7 +1617,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="8"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1689,7 +1628,6 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1701,7 +1639,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C21:C27"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="I5:K5"/>
@@ -1711,21 +1648,22 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C6:C20"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="C20:C26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E9">
-    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(E9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(E9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(F9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(F9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(G9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(G9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\githubfolder\rungame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Shinkyu\Rungame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D601D41E-FFD8-4668-8809-EB62BB62F63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4755509-1338-4964-899B-B87A155AE4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D0A6A-90D3-4312-AAEB-989A3380115E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D6" s="15">
         <f>AVERAGE(D7:D16)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="3"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="3"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="7"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="16">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="7"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="7"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="3"/>
@@ -1639,6 +1639,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="C20:C26"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J7:K8"/>
     <mergeCell ref="I5:K5"/>
@@ -1648,8 +1650,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="J9:K11"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="C20:C26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E9">
@@ -1678,6 +1678,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Shinkyu\Rungame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4755509-1338-4964-899B-B87A155AE4E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D9025-F0F8-4A23-BF63-C46CBA1B2095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -748,6 +748,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,15 +794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1212,23 +1212,23 @@
       <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="15">
         <f>AVERAGE(D7:D16)</f>
-        <v>0.5</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="3"/>
@@ -1236,18 +1236,18 @@
       <c r="H6" s="21">
         <v>45057</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="16">
         <v>0.75</v>
       </c>
@@ -1257,22 +1257,22 @@
       <c r="H7" s="21">
         <v>45058</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="16">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="3"/>
@@ -1280,16 +1280,16 @@
       <c r="H8" s="21">
         <v>45063</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="16">
         <v>1</v>
       </c>
@@ -1299,19 +1299,19 @@
       <c r="H9" s="21">
         <v>45064</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="33"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="16">
         <v>0.4</v>
       </c>
@@ -1321,15 +1321,15 @@
       <c r="H10" s="21">
         <v>45065</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="16">
         <v>0.85</v>
       </c>
@@ -1339,15 +1339,15 @@
       <c r="H11" s="21">
         <v>45070</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="16">
         <v>1</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="H12" s="21">
         <v>45071</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="6"/>
@@ -1366,7 +1366,7 @@
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="16">
         <v>1</v>
       </c>
@@ -1376,14 +1376,14 @@
       <c r="H13" s="21">
         <v>45072</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="16">
         <v>0</v>
       </c>
@@ -1393,14 +1393,14 @@
       <c r="H14" s="21">
         <v>45077</v>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="16">
         <v>0</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="H15" s="22">
         <v>45078</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="1"/>
@@ -1419,7 +1419,7 @@
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="16">
         <v>0</v>
       </c>
@@ -1429,14 +1429,14 @@
       <c r="H16" s="22">
         <v>45079</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="16">
         <f>AVERAGE(D18:D19)</f>
         <v>1</v>
@@ -1447,14 +1447,14 @@
       <c r="H17" s="22">
         <v>45084</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="16">
         <v>1</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="H18" s="22">
         <v>45085</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="28" t="s">
         <v>33</v>
       </c>
       <c r="J18" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="16">
         <v>1</v>
       </c>
@@ -1483,14 +1483,14 @@
       <c r="H19" s="22">
         <v>45086</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="16">
@@ -1503,14 +1503,14 @@
       <c r="H20" s="23">
         <v>45091</v>
       </c>
-      <c r="I20" s="27"/>
+      <c r="I20" s="30"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="16">
         <v>0</v>
       </c>
@@ -1525,7 +1525,7 @@
       <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="16">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="B23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="39"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="16">
         <f>AVERAGE(D24:D26)</f>
         <v>0</v>
@@ -1556,7 +1556,7 @@
       <c r="B24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="16">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="B25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="39"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="16">
         <v>0</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="B26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="40"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="16">
         <v>0</v>
       </c>

--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Shinkyu\Rungame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D9025-F0F8-4A23-BF63-C46CBA1B2095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA354E6B-1F5D-4C95-9AC7-A65610097D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -75,22 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2_1　時間による入手量の減少</t>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウシュ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2_2　コイン入手による加算</t>
     <rPh sb="7" eb="9">
       <t>ニュウシュ</t>
@@ -318,6 +302,16 @@
     <t>1_2　カメラの追従　</t>
     <rPh sb="8" eb="10">
       <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_1　スコアアイテム入手による加算</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1164,7 +1158,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1198,22 +1192,22 @@
     <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="31" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>27</v>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -1224,11 +1218,11 @@
         <v>0</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="15">
         <f>AVERAGE(D7:D16)</f>
-        <v>0.57499999999999996</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="3"/>
@@ -1237,7 +1231,7 @@
         <v>45057</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
@@ -1258,17 +1252,17 @@
         <v>45058</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="16">
@@ -1300,10 +1294,10 @@
         <v>45064</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="36"/>
     </row>
@@ -1345,7 +1339,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="16">
@@ -1358,13 +1352,13 @@
         <v>45071</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="16">
@@ -1385,7 +1379,8 @@
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="16">
-        <v>0</v>
+        <f>AVERAGE(D15:D16)</f>
+        <v>0.5</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="3"/>
@@ -1398,11 +1393,11 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="3"/>
@@ -1411,13 +1406,13 @@
         <v>45078</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="16">
@@ -1434,7 +1429,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="16">
@@ -1452,7 +1447,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="16">
@@ -1465,13 +1460,13 @@
         <v>45085</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="16">
@@ -1488,10 +1483,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D20" s="16">
         <f>AVERAGE(D21:D22)</f>
@@ -1508,7 +1503,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="16">
@@ -1523,7 +1518,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="16">
@@ -1538,7 +1533,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="16">
@@ -1554,7 +1549,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="16">
@@ -1569,7 +1564,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="16">
@@ -1584,7 +1579,7 @@
     </row>
     <row r="26" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="16">

--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Shinkyu\Rungame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Rungame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA354E6B-1F5D-4C95-9AC7-A65610097D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB04B9A-169C-4D9C-A74A-95EE302B4D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D0A6A-90D3-4312-AAEB-989A3380115E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1538,7 +1538,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="16">
         <f>AVERAGE(D24:D26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="3"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="3"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="3"/>

--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Rungame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Shinkyu\Rungame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB04B9A-169C-4D9C-A74A-95EE302B4D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE52DC-A64A-4F5A-A018-3FE9B94C9D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D0A6A-90D3-4312-AAEB-989A3380115E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D6" s="15">
         <f>AVERAGE(D7:D16)</f>
-        <v>0.72499999999999998</v>
+        <v>1</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="3"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="3"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="3"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="16">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="7"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="16">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="7"/>
@@ -1380,7 +1380,7 @@
       <c r="C14" s="26"/>
       <c r="D14" s="16">
         <f>AVERAGE(D15:D16)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="3"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="3"/>

--- a/計画表.xlsx
+++ b/計画表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Shinkyu\Rungame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\RunGame0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE52DC-A64A-4F5A-A018-3FE9B94C9D85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2300F998-1FAC-424D-8471-9F7F69DA1A36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{79951341-038E-42D3-B96F-B32A3219F165}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D0A6A-90D3-4312-AAEB-989A3380115E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D20" s="16">
         <f>AVERAGE(D21:D22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="3"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="3"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="3"/>
